--- a/Budget_HackTheBells.xlsx
+++ b/Budget_HackTheBells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keiran\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1920B7-5DA8-44AC-8048-46988AF3F03B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C08AF-9E71-4367-A4B0-5B423DEA5C00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="12977" xr2:uid="{D9CD9B44-D1AE-47BE-8FE3-042A0637AA4B}"/>
   </bookViews>
@@ -47,15 +47,9 @@
     <t>Source</t>
   </si>
   <si>
-    <t>GAMMA Maastricht</t>
-  </si>
-  <si>
     <t>Wood stock 4x9mmx270cm</t>
   </si>
   <si>
-    <t>Wood stock 4x18mmx270cm</t>
-  </si>
-  <si>
     <t>Amazon.de</t>
   </si>
   <si>
@@ -108,6 +102,12 @@
   </si>
   <si>
     <t>Momentary button switch</t>
+  </si>
+  <si>
+    <t>Wood stock 19x100mmx270cm (5 pieces)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMMA </t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
       <pane xSplit="9" ySplit="19" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -515,12 +515,12 @@
         <v>15.96</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -533,30 +533,30 @@
         <v>33.799999999999997</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.59</v>
+        <v>18.2</v>
       </c>
       <c r="D4">
         <f>B4*C4</f>
-        <v>51.8</v>
+        <v>36.4</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -569,12 +569,12 @@
         <v>69.539999999999992</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -587,12 +587,12 @@
         <v>38.97</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -605,12 +605,12 @@
         <v>17.579999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -623,12 +623,12 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -641,12 +641,12 @@
         <v>38.08</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -659,12 +659,12 @@
         <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -677,12 +677,12 @@
         <v>75.92</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -695,12 +695,12 @@
         <v>27.98</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -713,12 +713,12 @@
         <v>3.98</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -731,12 +731,12 @@
         <v>13.38</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -749,12 +749,12 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -767,12 +767,12 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -785,12 +785,12 @@
         <v>17.989999999999998</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -803,16 +803,16 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1">
         <f>SUM(D2:D18)</f>
-        <v>557.36</v>
+        <v>541.96</v>
       </c>
     </row>
   </sheetData>

--- a/Budget_HackTheBells.xlsx
+++ b/Budget_HackTheBells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keiran\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C08AF-9E71-4367-A4B0-5B423DEA5C00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F64B37-4101-4CAA-8E09-52BDE82C08BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="12977" xr2:uid="{D9CD9B44-D1AE-47BE-8FE3-042A0637AA4B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Item</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">GAMMA </t>
+  </si>
+  <si>
+    <t>Car battery charger 12V 3.5A</t>
   </si>
 </sst>
 </file>
@@ -468,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B134014B-175E-41BB-9A5E-A6213E54D07F}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="19" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="20" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" sqref="A1:E19"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -565,7 +568,7 @@
         <v>11.59</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D18" si="0">B5*C5</f>
+        <f t="shared" ref="D5:D19" si="0">B5*C5</f>
         <v>69.539999999999992</v>
       </c>
       <c r="E5" t="s">
@@ -664,35 +667,35 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>18.98</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>75.92</v>
+        <v>64.989999999999995</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>13.99</v>
+        <v>18.98</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>27.98</v>
+        <v>75.92</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -700,17 +703,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>1.99</v>
+        <v>13.99</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.98</v>
+        <v>27.98</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -718,35 +721,35 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>6.69</v>
+        <v>1.99</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>13.38</v>
+        <v>3.98</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>6.69</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>13.38</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -754,13 +757,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -772,17 +775,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>17.989999999999998</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>17.989999999999998</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -790,29 +793,47 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>8.3800000000000008</v>
       </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
-        <f>SUM(D2:D18)</f>
-        <v>541.96</v>
+      <c r="D20" s="1">
+        <f>SUM(D2:D19)</f>
+        <v>606.95000000000005</v>
       </c>
     </row>
   </sheetData>
